--- a/public/files/formato_reporte_modificacion_masiva.xlsx
+++ b/public/files/formato_reporte_modificacion_masiva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\avintech\app-anvitech\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\Anvitech - new-starsoft\app-anvitech-new\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F25121C-5603-4AC9-808D-7C5F253FED19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D13B11-511A-488A-9322-04CDA4714634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22590" yWindow="5130" windowWidth="21675" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>dni</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>hora_salida</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>8:00</t>
   </si>
 </sst>
 </file>
@@ -95,12 +104,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,20 +420,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -429,17 +443,37 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>12345678</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45485</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
